--- a/coronavirus-data/COVID-CASE-COUNT copy 2.xlsx
+++ b/coronavirus-data/COVID-CASE-COUNT copy 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaronM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF25FFA5-5451-4E96-8A35-ABCEB7045268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FF506E-41D2-499D-9ACF-F0F85694AFF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97C81C8C-18E5-4A98-9AAC-E36B795A6FBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97C81C8C-18E5-4A98-9AAC-E36B795A6FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>MODIFIED_ZCTA</t>
   </si>
@@ -49,57 +49,21 @@
     <t>Brooklyn</t>
   </si>
   <si>
-    <t>Brooklyn Heights</t>
-  </si>
-  <si>
     <t>East Flatbush</t>
   </si>
   <si>
-    <t>Bensonhurst/Mapleton</t>
-  </si>
-  <si>
-    <t>Fort Greene</t>
-  </si>
-  <si>
-    <t>Williamsburg</t>
-  </si>
-  <si>
     <t>East New York</t>
   </si>
   <si>
-    <t>Cypress Hills</t>
-  </si>
-  <si>
     <t>Bay Ridge</t>
   </si>
   <si>
-    <t>Flatlands/Midwood</t>
-  </si>
-  <si>
-    <t>Ocean Hill-Brownsville</t>
-  </si>
-  <si>
     <t>Brownsville</t>
   </si>
   <si>
-    <t>Crown Heights</t>
-  </si>
-  <si>
-    <t>Bath Beach/Bensonhurst</t>
-  </si>
-  <si>
     <t>Park Slope</t>
   </si>
   <si>
-    <t>Bedford-Stuyvesant</t>
-  </si>
-  <si>
-    <t>Boerum Hill</t>
-  </si>
-  <si>
-    <t>Kensington/Windsor Terrace</t>
-  </si>
-  <si>
     <t>Borough Park</t>
   </si>
   <si>
@@ -109,49 +73,34 @@
     <t>Bushwick</t>
   </si>
   <si>
-    <t>Greenpoint</t>
-  </si>
-  <si>
-    <t>Gravesend</t>
-  </si>
-  <si>
     <t>Coney Island</t>
   </si>
   <si>
-    <t>Prospect Lefferts Gardens</t>
-  </si>
-  <si>
-    <t>Flatbush</t>
-  </si>
-  <si>
-    <t>Dyker Heights</t>
-  </si>
-  <si>
     <t>Sheepshead Bay</t>
   </si>
   <si>
-    <t>Midwood</t>
-  </si>
-  <si>
-    <t>Carroll Gardens</t>
-  </si>
-  <si>
-    <t>Greenwood Heights</t>
-  </si>
-  <si>
-    <t>Bergen Beach/Flatlands/Marine Park/Mill Basin</t>
-  </si>
-  <si>
-    <t>Brighton Beach/Manhattan Beach/Sheepshead Bay</t>
-  </si>
-  <si>
     <t>Canarsie</t>
   </si>
   <si>
-    <t>East Williamsburg</t>
-  </si>
-  <si>
-    <t>Prospect Heights</t>
+    <t>Fort Greene/Brooklyn Hts</t>
+  </si>
+  <si>
+    <t>Bensonhurst</t>
+  </si>
+  <si>
+    <t>Williamsburg/Greenpoint</t>
+  </si>
+  <si>
+    <t>Flatbush/Midwood</t>
+  </si>
+  <si>
+    <t>Bedford Stuyvesant</t>
+  </si>
+  <si>
+    <t>Crown Heights North</t>
+  </si>
+  <si>
+    <t>Crown Heights South</t>
   </si>
 </sst>
 </file>
@@ -513,7 +462,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,8 +487,8 @@
       <c r="A2" s="1">
         <v>11201</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -550,7 +499,7 @@
         <v>11203</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -560,8 +509,8 @@
       <c r="A4" s="1">
         <v>11204</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -571,8 +520,8 @@
       <c r="A5" s="1">
         <v>11205</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -582,8 +531,8 @@
       <c r="A6" s="1">
         <v>11206</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -593,8 +542,8 @@
       <c r="A7" s="1">
         <v>11207</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -604,8 +553,8 @@
       <c r="A8" s="1">
         <v>11208</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -616,7 +565,7 @@
         <v>11209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -626,8 +575,8 @@
       <c r="A10" s="1">
         <v>11210</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -637,8 +586,8 @@
       <c r="A11" s="1">
         <v>11211</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
+      <c r="B11" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -649,7 +598,7 @@
         <v>11212</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -659,8 +608,8 @@
       <c r="A13" s="1">
         <v>11213</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
+      <c r="B13" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -670,7 +619,7 @@
       <c r="A14" s="1">
         <v>11214</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -682,7 +631,7 @@
         <v>11215</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -692,8 +641,8 @@
       <c r="A16" s="1">
         <v>11216</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -703,8 +652,8 @@
       <c r="A17" s="1">
         <v>11217</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
+      <c r="B17" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -714,8 +663,8 @@
       <c r="A18" s="1">
         <v>11218</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
+      <c r="B18" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -725,8 +674,8 @@
       <c r="A19" s="1">
         <v>11219</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
+      <c r="B19" t="s">
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -737,7 +686,7 @@
         <v>11220</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -748,7 +697,7 @@
         <v>11221</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -758,8 +707,8 @@
       <c r="A22" s="1">
         <v>11222</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
+      <c r="B22" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -769,8 +718,8 @@
       <c r="A23" s="1">
         <v>11223</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
+      <c r="B23" t="s">
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -781,7 +730,7 @@
         <v>11224</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -791,8 +740,8 @@
       <c r="A25" s="1">
         <v>11225</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>27</v>
+      <c r="B25" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -802,8 +751,8 @@
       <c r="A26" s="1">
         <v>11226</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
+      <c r="B26" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -813,8 +762,8 @@
       <c r="A27" s="1">
         <v>11228</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -825,7 +774,7 @@
         <v>11229</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -835,8 +784,8 @@
       <c r="A29" s="1">
         <v>11230</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
+      <c r="B29" t="s">
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -846,8 +795,8 @@
       <c r="A30" s="1">
         <v>11231</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
+      <c r="B30" t="s">
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -857,8 +806,8 @@
       <c r="A31" s="1">
         <v>11232</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
+      <c r="B31" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -868,8 +817,8 @@
       <c r="A32" s="1">
         <v>11233</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
+      <c r="B32" t="s">
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -880,7 +829,7 @@
         <v>11234</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -890,8 +839,8 @@
       <c r="A34" s="1">
         <v>11235</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
+      <c r="B34" t="s">
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -902,7 +851,7 @@
         <v>11236</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -912,8 +861,8 @@
       <c r="A36" s="1">
         <v>11237</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
+      <c r="B36" t="s">
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -923,8 +872,8 @@
       <c r="A37" s="1">
         <v>11238</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
+      <c r="B37" t="s">
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -935,7 +884,7 @@
         <v>11239</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
